--- a/AAII_Financials/Quarterly/LTRY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LTRY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="92">
   <si>
     <t>LTRY</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -667,10 +667,9 @@
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
@@ -696,19 +695,19 @@
         <v>44377</v>
       </c>
       <c r="F7" s="2">
-        <v>44286</v>
+        <v>44196</v>
       </c>
       <c r="G7" s="2">
-        <v>44196</v>
+        <v>44104</v>
       </c>
       <c r="H7" s="2">
-        <v>44104</v>
-      </c>
-      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
-        <v>43921</v>
+      <c r="I7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="K7" s="2">
         <v>43830</v>
@@ -718,26 +717,26 @@
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>4</v>
+      <c r="D8" s="3">
+        <v>32200</v>
       </c>
       <c r="E8" s="3">
-        <v>0</v>
+        <v>14800</v>
       </c>
       <c r="F8" s="3">
-        <v>0</v>
+        <v>3300</v>
       </c>
       <c r="G8" s="3">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
+        <v>2600</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K8" s="3">
         <v>0</v>
@@ -747,20 +746,20 @@
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>4</v>
+      <c r="D9" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E9" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G9" s="3">
+        <v>700</v>
+      </c>
+      <c r="H9" s="3">
+        <v>1000</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>4</v>
@@ -776,20 +775,20 @@
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>4</v>
+      <c r="D10" s="3">
+        <v>20300</v>
+      </c>
+      <c r="E10" s="3">
+        <v>10800</v>
+      </c>
+      <c r="F10" s="3">
+        <v>2100</v>
+      </c>
+      <c r="G10" s="3">
+        <v>900</v>
+      </c>
+      <c r="H10" s="3">
+        <v>1600</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>4</v>
@@ -906,25 +905,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="E15" s="3">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="F15" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G15" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
+        <v>700</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
@@ -945,25 +944,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>600</v>
+        <v>17100</v>
       </c>
       <c r="E17" s="3">
-        <v>1400</v>
+        <v>15400</v>
       </c>
       <c r="F17" s="3">
-        <v>700</v>
+        <v>4100</v>
       </c>
       <c r="G17" s="3">
-        <v>300</v>
+        <v>2400</v>
       </c>
       <c r="H17" s="3">
-        <v>1100</v>
-      </c>
-      <c r="I17" s="3">
-        <v>600</v>
-      </c>
-      <c r="J17" s="3">
-        <v>300</v>
+        <v>4600</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K17" s="3">
         <v>300</v>
@@ -973,26 +972,26 @@
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>4</v>
+      <c r="D18" s="3">
+        <v>15100</v>
       </c>
       <c r="E18" s="3">
-        <v>-1400</v>
+        <v>-600</v>
       </c>
       <c r="F18" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="G18" s="3">
-        <v>-300</v>
+        <v>-800</v>
       </c>
       <c r="H18" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-600</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-300</v>
+        <v>-2000</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K18" s="3">
         <v>-300</v>
@@ -1015,26 +1014,26 @@
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>4</v>
+      <c r="D20" s="3">
+        <v>-100</v>
       </c>
       <c r="E20" s="3">
-        <v>-1200</v>
+        <v>-1500</v>
       </c>
       <c r="F20" s="3">
-        <v>900</v>
+        <v>-500</v>
       </c>
       <c r="G20" s="3">
-        <v>-2300</v>
+        <v>-100</v>
       </c>
       <c r="H20" s="3">
-        <v>300</v>
-      </c>
-      <c r="I20" s="3">
-        <v>300</v>
-      </c>
-      <c r="J20" s="3">
-        <v>300</v>
+        <v>-400</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K20" s="3">
         <v>600</v>
@@ -1050,11 +1049,11 @@
       <c r="E21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>4</v>
+      <c r="F21" s="3">
+        <v>200</v>
+      </c>
+      <c r="G21" s="3">
+        <v>200</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>4</v>
@@ -1074,25 +1073,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>3800</v>
       </c>
       <c r="E22" s="3">
-        <v>0</v>
+        <v>5500</v>
       </c>
       <c r="F22" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G22" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
+        <v>600</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1103,25 +1102,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>4200</v>
+        <v>11200</v>
       </c>
       <c r="E23" s="3">
-        <v>-2600</v>
+        <v>-7600</v>
       </c>
       <c r="F23" s="3">
-        <v>200</v>
+        <v>-1700</v>
       </c>
       <c r="G23" s="3">
-        <v>-2600</v>
+        <v>-1200</v>
       </c>
       <c r="H23" s="3">
-        <v>-800</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-300</v>
-      </c>
-      <c r="J23" s="3">
-        <v>0</v>
+        <v>-3000</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K23" s="3">
         <v>200</v>
@@ -1131,26 +1130,26 @@
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
-        <v>-100</v>
-      </c>
-      <c r="E24" s="3">
-        <v>-100</v>
+      <c r="D24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
       </c>
-      <c r="G24" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H24" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
+      <c r="G24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K24" s="3">
         <v>100</v>
@@ -1190,25 +1189,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>4300</v>
+        <v>11200</v>
       </c>
       <c r="E26" s="3">
-        <v>-2500</v>
+        <v>-7600</v>
       </c>
       <c r="F26" s="3">
-        <v>200</v>
+        <v>-1700</v>
       </c>
       <c r="G26" s="3">
-        <v>-2500</v>
+        <v>-1200</v>
       </c>
       <c r="H26" s="3">
-        <v>-600</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-300</v>
-      </c>
-      <c r="J26" s="3">
-        <v>0</v>
+        <v>-3000</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K26" s="3">
         <v>200</v>
@@ -1219,25 +1218,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>4300</v>
+        <v>11200</v>
       </c>
       <c r="E27" s="3">
-        <v>-2500</v>
+        <v>-7600</v>
       </c>
       <c r="F27" s="3">
-        <v>200</v>
+        <v>-1700</v>
       </c>
       <c r="G27" s="3">
-        <v>-2500</v>
+        <v>-1200</v>
       </c>
       <c r="H27" s="3">
-        <v>-600</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-500</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-200</v>
+        <v>-3000</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K27" s="3">
         <v>100</v>
@@ -1363,26 +1362,26 @@
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>4</v>
+      <c r="D32" s="3">
+        <v>100</v>
       </c>
       <c r="E32" s="3">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="F32" s="3">
-        <v>-900</v>
+        <v>500</v>
       </c>
       <c r="G32" s="3">
-        <v>2300</v>
+        <v>100</v>
       </c>
       <c r="H32" s="3">
-        <v>-300</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-300</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-300</v>
+        <v>400</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K32" s="3">
         <v>-600</v>
@@ -1393,25 +1392,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>4300</v>
+        <v>11200</v>
       </c>
       <c r="E33" s="3">
-        <v>-2500</v>
+        <v>-7600</v>
       </c>
       <c r="F33" s="3">
-        <v>200</v>
+        <v>-1700</v>
       </c>
       <c r="G33" s="3">
-        <v>-2500</v>
+        <v>-1200</v>
       </c>
       <c r="H33" s="3">
-        <v>-600</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-500</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-200</v>
+        <v>-3000</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K33" s="3">
         <v>100</v>
@@ -1451,25 +1450,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>4300</v>
+        <v>11200</v>
       </c>
       <c r="E35" s="3">
-        <v>-2500</v>
+        <v>-7600</v>
       </c>
       <c r="F35" s="3">
-        <v>200</v>
+        <v>-1700</v>
       </c>
       <c r="G35" s="3">
-        <v>-2500</v>
+        <v>-1200</v>
       </c>
       <c r="H35" s="3">
-        <v>-600</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-500</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-200</v>
+        <v>-3000</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K35" s="3">
         <v>100</v>
@@ -1491,19 +1490,19 @@
         <v>44377</v>
       </c>
       <c r="F38" s="2">
-        <v>44286</v>
+        <v>44196</v>
       </c>
       <c r="G38" s="2">
-        <v>44196</v>
+        <v>44104</v>
       </c>
       <c r="H38" s="2">
-        <v>44104</v>
-      </c>
-      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
-        <v>43921</v>
+      <c r="I38" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="K38" s="2">
         <v>43830</v>
@@ -1540,25 +1539,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>100</v>
-      </c>
-      <c r="E41" s="3">
-        <v>100</v>
-      </c>
-      <c r="F41" s="3">
-        <v>100</v>
-      </c>
-      <c r="G41" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H41" s="3">
-        <v>200</v>
-      </c>
-      <c r="I41" s="3">
-        <v>1000</v>
-      </c>
-      <c r="J41" s="3">
-        <v>600</v>
+        <v>1200</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K41" s="3">
         <v>100</v>
@@ -1598,25 +1597,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
-      </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0</v>
+        <v>33100</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
@@ -1656,25 +1655,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
-      </c>
-      <c r="E45" s="3">
-        <v>100</v>
-      </c>
-      <c r="F45" s="3">
-        <v>100</v>
-      </c>
-      <c r="G45" s="3">
-        <v>100</v>
-      </c>
-      <c r="H45" s="3">
-        <v>100</v>
-      </c>
-      <c r="I45" s="3">
-        <v>100</v>
-      </c>
-      <c r="J45" s="3">
-        <v>100</v>
+        <v>11100</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K45" s="3">
         <v>100</v>
@@ -1685,25 +1684,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>100</v>
-      </c>
-      <c r="E46" s="3">
-        <v>200</v>
-      </c>
-      <c r="F46" s="3">
-        <v>200</v>
-      </c>
-      <c r="G46" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H46" s="3">
-        <v>300</v>
-      </c>
-      <c r="I46" s="3">
-        <v>1000</v>
-      </c>
-      <c r="J46" s="3">
-        <v>700</v>
+        <v>45300</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K46" s="3">
         <v>200</v>
@@ -1714,25 +1713,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>63500</v>
-      </c>
-      <c r="E47" s="3">
-        <v>63300</v>
-      </c>
-      <c r="F47" s="3">
-        <v>63400</v>
-      </c>
-      <c r="G47" s="3">
-        <v>63400</v>
-      </c>
-      <c r="H47" s="3">
-        <v>63200</v>
-      </c>
-      <c r="I47" s="3">
-        <v>69100</v>
-      </c>
-      <c r="J47" s="3">
-        <v>75100</v>
+        <v>300</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K47" s="3">
         <v>74400</v>
@@ -1743,25 +1742,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
-      </c>
-      <c r="E48" s="3">
-        <v>0</v>
-      </c>
-      <c r="F48" s="3">
-        <v>0</v>
-      </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
-      <c r="J48" s="3">
-        <v>0</v>
+        <v>1300</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
@@ -1772,25 +1771,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>0</v>
-      </c>
-      <c r="E49" s="3">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3">
-        <v>0</v>
+        <v>45800</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
@@ -1859,19 +1858,19 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E52" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="F52" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G52" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H52" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I52" s="3">
         <v>0</v>
@@ -1917,25 +1916,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>64100</v>
-      </c>
-      <c r="E54" s="3">
-        <v>63800</v>
-      </c>
-      <c r="F54" s="3">
-        <v>63900</v>
-      </c>
-      <c r="G54" s="3">
-        <v>64700</v>
-      </c>
-      <c r="H54" s="3">
-        <v>63600</v>
-      </c>
-      <c r="I54" s="3">
-        <v>70100</v>
-      </c>
-      <c r="J54" s="3">
-        <v>75900</v>
+        <v>92600</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K54" s="3">
         <v>74500</v>
@@ -1972,25 +1971,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1200</v>
-      </c>
-      <c r="E57" s="3">
-        <v>800</v>
-      </c>
-      <c r="F57" s="3">
-        <v>600</v>
-      </c>
-      <c r="G57" s="3">
-        <v>300</v>
-      </c>
-      <c r="H57" s="3">
-        <v>300</v>
-      </c>
-      <c r="I57" s="3">
-        <v>100</v>
-      </c>
-      <c r="J57" s="3">
-        <v>200</v>
+        <v>3000</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K57" s="3">
         <v>200</v>
@@ -2001,25 +2000,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>5500</v>
-      </c>
-      <c r="E58" s="3">
-        <v>5100</v>
-      </c>
-      <c r="F58" s="3">
-        <v>4700</v>
-      </c>
-      <c r="G58" s="3">
-        <v>5100</v>
-      </c>
-      <c r="H58" s="3">
-        <v>3800</v>
-      </c>
-      <c r="I58" s="3">
-        <v>2700</v>
-      </c>
-      <c r="J58" s="3">
-        <v>1400</v>
+        <v>13000</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K58" s="3">
         <v>200</v>
@@ -2029,8 +2028,8 @@
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>4</v>
+      <c r="D59" s="3">
+        <v>9000</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>4</v>
@@ -2038,17 +2037,17 @@
       <c r="F59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G59" s="3">
-        <v>0</v>
-      </c>
-      <c r="H59" s="3">
-        <v>0</v>
-      </c>
-      <c r="I59" s="3">
-        <v>700</v>
-      </c>
-      <c r="J59" s="3">
-        <v>700</v>
+      <c r="G59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K59" s="3">
         <v>700</v>
@@ -2059,25 +2058,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>6600</v>
-      </c>
-      <c r="E60" s="3">
-        <v>5900</v>
-      </c>
-      <c r="F60" s="3">
-        <v>5200</v>
-      </c>
-      <c r="G60" s="3">
-        <v>5400</v>
-      </c>
-      <c r="H60" s="3">
-        <v>4100</v>
-      </c>
-      <c r="I60" s="3">
-        <v>3500</v>
-      </c>
-      <c r="J60" s="3">
-        <v>2300</v>
+        <v>25000</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K60" s="3">
         <v>1000</v>
@@ -2088,7 +2087,7 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>31600</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2117,25 +2116,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>8100</v>
-      </c>
-      <c r="E62" s="3">
-        <v>13000</v>
-      </c>
-      <c r="F62" s="3">
-        <v>10900</v>
-      </c>
-      <c r="G62" s="3">
-        <v>11700</v>
-      </c>
-      <c r="H62" s="3">
-        <v>5000</v>
-      </c>
-      <c r="I62" s="3">
-        <v>5000</v>
-      </c>
-      <c r="J62" s="3">
-        <v>5000</v>
+        <v>1600</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K62" s="3">
         <v>5000</v>
@@ -2233,25 +2232,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>14800</v>
-      </c>
-      <c r="E66" s="3">
-        <v>18800</v>
-      </c>
-      <c r="F66" s="3">
-        <v>16100</v>
-      </c>
-      <c r="G66" s="3">
-        <v>17100</v>
-      </c>
-      <c r="H66" s="3">
-        <v>58600</v>
-      </c>
-      <c r="I66" s="3">
-        <v>65100</v>
-      </c>
-      <c r="J66" s="3">
-        <v>70900</v>
+        <v>60800</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K66" s="3">
         <v>69500</v>
@@ -2391,25 +2390,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-14200</v>
-      </c>
-      <c r="E72" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="F72" s="3">
-        <v>1000</v>
-      </c>
-      <c r="G72" s="3">
-        <v>800</v>
-      </c>
-      <c r="H72" s="3">
-        <v>3300</v>
-      </c>
-      <c r="I72" s="3">
-        <v>3700</v>
-      </c>
-      <c r="J72" s="3">
-        <v>3900</v>
+        <v>-91600</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K72" s="3">
         <v>3900</v>
@@ -2507,25 +2506,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>49300</v>
-      </c>
-      <c r="E76" s="3">
-        <v>45000</v>
-      </c>
-      <c r="F76" s="3">
-        <v>47700</v>
-      </c>
-      <c r="G76" s="3">
-        <v>47500</v>
-      </c>
-      <c r="H76" s="3">
-        <v>5000</v>
-      </c>
-      <c r="I76" s="3">
-        <v>5000</v>
-      </c>
-      <c r="J76" s="3">
-        <v>5000</v>
+        <v>31800</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K76" s="3">
         <v>5000</v>
@@ -2576,19 +2575,19 @@
         <v>44377</v>
       </c>
       <c r="F80" s="2">
-        <v>44286</v>
+        <v>44196</v>
       </c>
       <c r="G80" s="2">
-        <v>44196</v>
+        <v>44104</v>
       </c>
       <c r="H80" s="2">
-        <v>44104</v>
-      </c>
-      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
-        <v>43921</v>
+      <c r="I80" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J80" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="K80" s="2">
         <v>43830</v>
@@ -2599,25 +2598,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>4300</v>
+        <v>11200</v>
       </c>
       <c r="E81" s="3">
-        <v>-2500</v>
+        <v>-7600</v>
       </c>
       <c r="F81" s="3">
-        <v>200</v>
+        <v>-1700</v>
       </c>
       <c r="G81" s="3">
-        <v>-2500</v>
+        <v>-1200</v>
       </c>
       <c r="H81" s="3">
-        <v>-600</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-500</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-200</v>
+        <v>-3000</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K81" s="3">
         <v>100</v>
@@ -2640,26 +2639,26 @@
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>0</v>
-      </c>
-      <c r="E83" s="3">
-        <v>0</v>
+      <c r="D83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
+        <v>1500</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
@@ -2814,26 +2813,26 @@
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="E89" s="3">
-        <v>-1000</v>
+      <c r="D89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F89" s="3">
-        <v>-500</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-600</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-100</v>
+        <v>4700</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K89" s="3">
         <v>-300</v>
@@ -2856,26 +2855,26 @@
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
-      </c>
-      <c r="E91" s="3">
-        <v>0</v>
+      <c r="D91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="G91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -2943,26 +2942,26 @@
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>-200</v>
-      </c>
-      <c r="E94" s="3">
-        <v>100</v>
+      <c r="D94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F94" s="3">
         <v>0</v>
       </c>
-      <c r="G94" s="3">
-        <v>-200</v>
-      </c>
-      <c r="H94" s="3">
-        <v>11600</v>
-      </c>
-      <c r="I94" s="3">
-        <v>5600</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-500</v>
+      <c r="G94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K94" s="3">
         <v>137100</v>
@@ -3101,26 +3100,26 @@
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>400</v>
-      </c>
-      <c r="E100" s="3">
-        <v>0</v>
+      <c r="D100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F100" s="3">
-        <v>-400</v>
-      </c>
-      <c r="G100" s="3">
-        <v>1300</v>
-      </c>
-      <c r="H100" s="3">
-        <v>-9800</v>
-      </c>
-      <c r="I100" s="3">
-        <v>-4100</v>
-      </c>
-      <c r="J100" s="3">
-        <v>1200</v>
+        <v>5900</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K100" s="3">
         <v>-137400</v>
@@ -3159,26 +3158,26 @@
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>-100</v>
-      </c>
-      <c r="E102" s="3">
-        <v>-800</v>
+      <c r="D102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F102" s="3">
-        <v>-900</v>
-      </c>
-      <c r="G102" s="3">
-        <v>800</v>
-      </c>
-      <c r="H102" s="3">
-        <v>200</v>
-      </c>
-      <c r="I102" s="3">
-        <v>900</v>
-      </c>
-      <c r="J102" s="3">
-        <v>600</v>
+        <v>10600</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K102" s="3">
         <v>-600</v>

--- a/AAII_Financials/Quarterly/LTRY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LTRY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="92">
   <si>
     <t>LTRY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,142 +665,154 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>4</v>
-      </c>
       <c r="J7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>21500</v>
+      </c>
+      <c r="E8" s="3">
         <v>32200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>14800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2600</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E9" s="3">
         <v>11900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>4000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1000</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J9" s="3" t="s">
         <v>4</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>18300</v>
+      </c>
+      <c r="E10" s="3">
         <v>20300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>10800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>2100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1600</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J10" s="3" t="s">
         <v>4</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -812,8 +824,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -841,8 +854,11 @@
       <c r="K12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -870,8 +886,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -899,37 +918,43 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E15" s="3">
         <v>1500</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>1400</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>500</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>400</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>700</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -938,66 +963,73 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>25800</v>
+      </c>
+      <c r="E17" s="3">
         <v>17100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>15400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4600</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K17" s="3">
+      <c r="K17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L17" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E18" s="3">
         <v>15100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-600</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-800</v>
       </c>
       <c r="G18" s="3">
         <v>-800</v>
       </c>
       <c r="H18" s="3">
+        <v>-800</v>
+      </c>
+      <c r="I18" s="3">
         <v>-2000</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L18" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1009,54 +1041,58 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E20" s="3">
         <v>-100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-400</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K20" s="3">
+      <c r="K20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L20" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>4</v>
+      <c r="D21" s="3">
+        <v>-4200</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F21" s="3">
-        <v>200</v>
+      <c r="F21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G21" s="3">
         <v>200</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>4</v>
+      <c r="H21" s="3">
+        <v>200</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>4</v>
@@ -1067,80 +1103,89 @@
       <c r="K21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E22" s="3">
         <v>3800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>5500</v>
-      </c>
-      <c r="F22" s="3">
-        <v>300</v>
       </c>
       <c r="G22" s="3">
         <v>300</v>
       </c>
       <c r="H22" s="3">
+        <v>300</v>
+      </c>
+      <c r="I22" s="3">
         <v>600</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-16100</v>
+      </c>
+      <c r="E23" s="3">
         <v>11200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-7600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-3000</v>
       </c>
-      <c r="I23" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J23" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K23" s="3">
+      <c r="K23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L23" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>4</v>
+      <c r="D24" s="3">
+        <v>-1600</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>4</v>
+      <c r="F24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>4</v>
@@ -1151,11 +1196,14 @@
       <c r="J24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K24" s="3">
+      <c r="K24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1183,66 +1231,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-14500</v>
+      </c>
+      <c r="E26" s="3">
         <v>11200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-7600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-3000</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J26" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K26" s="3">
+      <c r="K26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L26" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-14700</v>
+      </c>
+      <c r="E27" s="3">
         <v>11200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-7600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-3000</v>
       </c>
-      <c r="I27" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J27" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K27" s="3">
+      <c r="K27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L27" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1270,8 +1327,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1299,8 +1359,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1328,8 +1391,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1357,66 +1423,75 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E32" s="3">
         <v>100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>400</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K32" s="3">
+      <c r="K32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L32" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-14700</v>
+      </c>
+      <c r="E33" s="3">
         <v>11200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-7600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-3000</v>
       </c>
-      <c r="I33" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J33" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K33" s="3">
+      <c r="K33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L33" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1444,71 +1519,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-14700</v>
+      </c>
+      <c r="E35" s="3">
         <v>11200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-7600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-3000</v>
       </c>
-      <c r="I35" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J35" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K35" s="3">
+      <c r="K35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L35" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>4</v>
-      </c>
       <c r="J38" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K38" s="2">
+      <c r="K38" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1520,8 +1604,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1533,17 +1618,18 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>62600</v>
+      </c>
+      <c r="E41" s="3">
         <v>1200</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F41" s="3" t="s">
         <v>4</v>
       </c>
@@ -1559,11 +1645,14 @@
       <c r="J41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K41" s="3">
+      <c r="K41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L41" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1591,17 +1680,20 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>21700</v>
+      </c>
+      <c r="E43" s="3">
         <v>33100</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F43" s="3" t="s">
         <v>4</v>
       </c>
@@ -1617,11 +1709,14 @@
       <c r="J43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1649,17 +1744,20 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>14100</v>
+      </c>
+      <c r="E45" s="3">
         <v>11100</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F45" s="3" t="s">
         <v>4</v>
       </c>
@@ -1675,20 +1773,23 @@
       <c r="J45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K45" s="3">
+      <c r="K45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L45" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>98500</v>
+      </c>
+      <c r="E46" s="3">
         <v>45300</v>
       </c>
-      <c r="E46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F46" s="3" t="s">
         <v>4</v>
       </c>
@@ -1704,19 +1805,22 @@
       <c r="J46" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K46" s="3">
+      <c r="K46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L46" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
         <v>300</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>4</v>
+      <c r="E47" s="3">
+        <v>300</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>4</v>
@@ -1733,20 +1837,23 @@
       <c r="J47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K47" s="3">
+      <c r="K47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L47" s="3">
         <v>74400</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>100</v>
+      </c>
+      <c r="E48" s="3">
         <v>1300</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F48" s="3" t="s">
         <v>4</v>
       </c>
@@ -1762,20 +1869,23 @@
       <c r="J48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>48300</v>
+      </c>
+      <c r="E49" s="3">
         <v>45800</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F49" s="3" t="s">
         <v>4</v>
       </c>
@@ -1791,11 +1901,14 @@
       <c r="J49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1823,8 +1936,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1852,8 +1968,11 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1881,8 +2000,11 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1910,17 +2032,20 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>147200</v>
+      </c>
+      <c r="E54" s="3">
         <v>92600</v>
       </c>
-      <c r="E54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F54" s="3" t="s">
         <v>4</v>
       </c>
@@ -1936,11 +2061,14 @@
       <c r="J54" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K54" s="3">
+      <c r="K54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L54" s="3">
         <v>74500</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1952,8 +2080,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1965,17 +2094,18 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E57" s="3">
         <v>3000</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F57" s="3" t="s">
         <v>4</v>
       </c>
@@ -1991,20 +2121,23 @@
       <c r="J57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K57" s="3">
+      <c r="K57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L57" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E58" s="3">
         <v>13000</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F58" s="3" t="s">
         <v>4</v>
       </c>
@@ -2020,20 +2153,23 @@
       <c r="J58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K58" s="3">
+      <c r="K58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E59" s="3">
         <v>9000</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F59" s="3" t="s">
         <v>4</v>
       </c>
@@ -2049,20 +2185,23 @@
       <c r="J59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K59" s="3">
+      <c r="K59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L59" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E60" s="3">
         <v>25000</v>
       </c>
-      <c r="E60" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F60" s="3" t="s">
         <v>4</v>
       </c>
@@ -2078,20 +2217,23 @@
       <c r="J60" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K60" s="3">
+      <c r="K60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L60" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
         <v>31600</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
@@ -2110,17 +2252,20 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>0</v>
+      </c>
+      <c r="E62" s="3">
         <v>1600</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F62" s="3" t="s">
         <v>4</v>
       </c>
@@ -2136,11 +2281,14 @@
       <c r="J62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K62" s="3">
+      <c r="K62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L62" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2168,8 +2316,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2197,8 +2348,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2226,17 +2380,20 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>12900</v>
+      </c>
+      <c r="E66" s="3">
         <v>60800</v>
       </c>
-      <c r="E66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F66" s="3" t="s">
         <v>4</v>
       </c>
@@ -2252,11 +2409,14 @@
       <c r="J66" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K66" s="3">
+      <c r="K66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L66" s="3">
         <v>69500</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2268,8 +2428,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2297,8 +2458,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2326,8 +2490,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2355,8 +2522,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2384,17 +2554,20 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-106200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-91600</v>
       </c>
-      <c r="E72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F72" s="3" t="s">
         <v>4</v>
       </c>
@@ -2410,11 +2583,14 @@
       <c r="J72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K72" s="3">
+      <c r="K72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L72" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,8 +2618,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2471,8 +2650,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2500,17 +2682,20 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>134200</v>
+      </c>
+      <c r="E76" s="3">
         <v>31800</v>
       </c>
-      <c r="E76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F76" s="3" t="s">
         <v>4</v>
       </c>
@@ -2526,11 +2711,14 @@
       <c r="J76" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K76" s="3">
+      <c r="K76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L76" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2558,71 +2746,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2" t="s">
-        <v>4</v>
-      </c>
       <c r="J80" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K80" s="2">
+      <c r="K80" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-14700</v>
+      </c>
+      <c r="E81" s="3">
         <v>11200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-7600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-3000</v>
       </c>
-      <c r="I81" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J81" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K81" s="3">
+      <c r="K81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L81" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2634,23 +2831,24 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>4</v>
+      <c r="D83" s="3">
+        <v>1400</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F83" s="3">
+      <c r="F83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G83" s="3">
         <v>1500</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H83" s="3" t="s">
         <v>4</v>
       </c>
@@ -2660,11 +2858,14 @@
       <c r="J83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2692,8 +2893,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2721,8 +2925,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2750,8 +2957,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2779,8 +2989,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2808,23 +3021,26 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>4</v>
+      <c r="D89" s="3">
+        <v>15500</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F89" s="3">
+      <c r="F89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G89" s="3">
         <v>4700</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H89" s="3" t="s">
         <v>4</v>
       </c>
@@ -2834,11 +3050,14 @@
       <c r="J89" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K89" s="3">
+      <c r="K89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L89" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2850,22 +3069,23 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>4</v>
+      <c r="D91" s="3">
+        <v>1100</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>4</v>
+      <c r="F91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>4</v>
@@ -2876,11 +3096,14 @@
       <c r="J91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2908,8 +3131,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2937,22 +3163,25 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>4</v>
+      <c r="D94" s="3">
+        <v>-1100</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>4</v>
+      <c r="F94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>4</v>
@@ -2963,11 +3192,14 @@
       <c r="J94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K94" s="3">
+      <c r="K94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L94" s="3">
         <v>137100</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2979,8 +3211,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3008,8 +3241,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3037,8 +3273,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3066,8 +3305,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3095,23 +3337,26 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>4</v>
+      <c r="D100" s="3">
+        <v>47100</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F100" s="3">
+      <c r="F100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G100" s="3">
         <v>5900</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H100" s="3" t="s">
         <v>4</v>
       </c>
@@ -3121,11 +3366,14 @@
       <c r="J100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K100" s="3">
+      <c r="K100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L100" s="3">
         <v>-137400</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3153,23 +3401,26 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>4</v>
+      <c r="D102" s="3">
+        <v>61500</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F102" s="3">
+      <c r="F102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G102" s="3">
         <v>10600</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H102" s="3" t="s">
         <v>4</v>
       </c>
@@ -3179,7 +3430,10 @@
       <c r="J102" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K102" s="3">
+      <c r="K102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L102" s="3">
         <v>-600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LTRY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LTRY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="92">
   <si>
     <t>LTRY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,90 +665,97 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>4</v>
-      </c>
       <c r="K7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L7" s="2">
+      <c r="L7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>21200</v>
+      </c>
+      <c r="E8" s="3">
         <v>21500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>32200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>14800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2600</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -756,63 +763,69 @@
         <v>3200</v>
       </c>
       <c r="E9" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F9" s="3">
         <v>11900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>4000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1000</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K9" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E10" s="3">
         <v>18300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>20300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>10800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>2100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1600</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K10" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -825,8 +838,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -857,8 +871,11 @@
       <c r="L12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -889,8 +906,11 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -921,8 +941,11 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -930,31 +953,34 @@
         <v>1400</v>
       </c>
       <c r="E15" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F15" s="3">
         <v>1500</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>1400</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>500</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>400</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>700</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -964,72 +990,79 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>37000</v>
+      </c>
+      <c r="E17" s="3">
         <v>25800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>17100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>15400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>4600</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L17" s="3">
+      <c r="L17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M17" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-15800</v>
+      </c>
+      <c r="E18" s="3">
         <v>-4300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>15100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-600</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-800</v>
       </c>
       <c r="H18" s="3">
         <v>-800</v>
       </c>
       <c r="I18" s="3">
+        <v>-800</v>
+      </c>
+      <c r="J18" s="3">
         <v>-2000</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L18" s="3">
+      <c r="L18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M18" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1042,60 +1075,64 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-400</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L20" s="3">
+      <c r="L20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M20" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-14400</v>
+      </c>
+      <c r="E21" s="3">
         <v>-4200</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G21" s="3">
-        <v>200</v>
+      <c r="G21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H21" s="3">
         <v>200</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>4</v>
+      <c r="I21" s="3">
+        <v>200</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>4</v>
@@ -1106,89 +1143,98 @@
       <c r="L21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" s="3">
         <v>10500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>3800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>5500</v>
-      </c>
-      <c r="G22" s="3">
-        <v>300</v>
       </c>
       <c r="H22" s="3">
         <v>300</v>
       </c>
       <c r="I22" s="3">
+        <v>300</v>
+      </c>
+      <c r="J22" s="3">
         <v>600</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-15800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-16100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>11200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-7600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-3000</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K23" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L23" s="3">
+      <c r="L23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M23" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>-1600</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>4</v>
+      <c r="G24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>4</v>
@@ -1199,11 +1245,14 @@
       <c r="K24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L24" s="3">
+      <c r="L24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1234,72 +1283,81 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-15800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-14500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>11200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-7600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-3000</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K26" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L26" s="3">
+      <c r="L26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M26" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-15700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-14700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>11200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-7600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-3000</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K27" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L27" s="3">
+      <c r="L27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M27" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1330,8 +1388,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1362,8 +1423,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1394,8 +1458,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1426,72 +1493,81 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>1300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>400</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L32" s="3">
+      <c r="L32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M32" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-15700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-14700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>11200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-7600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-3000</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K33" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L33" s="3">
+      <c r="L33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M33" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1522,77 +1598,86 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-15700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-14700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>11200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-7600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-3000</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K35" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L35" s="3">
+      <c r="L35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M35" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>4</v>
-      </c>
       <c r="K38" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L38" s="2">
+      <c r="L38" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1605,8 +1690,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1619,20 +1705,21 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>50800</v>
+      </c>
+      <c r="E41" s="3">
         <v>62600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1200</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G41" s="3" t="s">
         <v>4</v>
       </c>
@@ -1648,11 +1735,14 @@
       <c r="K41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L41" s="3">
+      <c r="L41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M41" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1683,20 +1773,23 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>35800</v>
+      </c>
+      <c r="E43" s="3">
         <v>21700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>33100</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G43" s="3" t="s">
         <v>4</v>
       </c>
@@ -1712,11 +1805,14 @@
       <c r="K43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1747,20 +1843,23 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>13100</v>
+      </c>
+      <c r="E45" s="3">
         <v>14100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>11100</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G45" s="3" t="s">
         <v>4</v>
       </c>
@@ -1776,23 +1875,26 @@
       <c r="K45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L45" s="3">
+      <c r="L45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M45" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>99700</v>
+      </c>
+      <c r="E46" s="3">
         <v>98500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>45300</v>
       </c>
-      <c r="F46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G46" s="3" t="s">
         <v>4</v>
       </c>
@@ -1808,22 +1910,25 @@
       <c r="K46" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L46" s="3">
+      <c r="L46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M46" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>300</v>
+        <v>6800</v>
       </c>
       <c r="E47" s="3">
         <v>300</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>4</v>
+      <c r="F47" s="3">
+        <v>300</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>4</v>
@@ -1840,11 +1945,14 @@
       <c r="K47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L47" s="3">
+      <c r="L47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M47" s="3">
         <v>74400</v>
       </c>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1852,11 +1960,11 @@
         <v>100</v>
       </c>
       <c r="E48" s="3">
+        <v>100</v>
+      </c>
+      <c r="F48" s="3">
         <v>1300</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G48" s="3" t="s">
         <v>4</v>
       </c>
@@ -1872,23 +1980,26 @@
       <c r="K48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>48100</v>
+      </c>
+      <c r="E49" s="3">
         <v>48300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>45800</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G49" s="3" t="s">
         <v>4</v>
       </c>
@@ -1904,11 +2015,14 @@
       <c r="K49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L49" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1939,8 +2053,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1971,8 +2088,11 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2003,8 +2123,11 @@
       <c r="L52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2035,20 +2158,23 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>154600</v>
+      </c>
+      <c r="E54" s="3">
         <v>147200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>92600</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G54" s="3" t="s">
         <v>4</v>
       </c>
@@ -2064,11 +2190,14 @@
       <c r="K54" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L54" s="3">
+      <c r="L54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M54" s="3">
         <v>74500</v>
       </c>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2081,8 +2210,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2095,20 +2225,21 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E57" s="3">
         <v>1000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3000</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G57" s="3" t="s">
         <v>4</v>
       </c>
@@ -2124,23 +2255,26 @@
       <c r="K57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L57" s="3">
+      <c r="L57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M57" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E58" s="3">
         <v>3800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>13000</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G58" s="3" t="s">
         <v>4</v>
       </c>
@@ -2156,23 +2290,26 @@
       <c r="K58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L58" s="3">
+      <c r="L58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E59" s="3">
         <v>5400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>9000</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G59" s="3" t="s">
         <v>4</v>
       </c>
@@ -2188,23 +2325,26 @@
       <c r="K59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L59" s="3">
+      <c r="L59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M59" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E60" s="3">
         <v>10100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>25000</v>
       </c>
-      <c r="F60" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G60" s="3" t="s">
         <v>4</v>
       </c>
@@ -2220,11 +2360,14 @@
       <c r="K60" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L60" s="3">
+      <c r="L60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M60" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2232,11 +2375,11 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
         <v>31600</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -2255,8 +2398,11 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2264,11 +2410,11 @@
         <v>0</v>
       </c>
       <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
         <v>1600</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G62" s="3" t="s">
         <v>4</v>
       </c>
@@ -2284,11 +2430,14 @@
       <c r="K62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L62" s="3">
+      <c r="L62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M62" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2319,8 +2468,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2351,8 +2503,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2383,20 +2538,23 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>13500</v>
+      </c>
+      <c r="E66" s="3">
         <v>12900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>60800</v>
       </c>
-      <c r="F66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G66" s="3" t="s">
         <v>4</v>
       </c>
@@ -2412,11 +2570,14 @@
       <c r="K66" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L66" s="3">
+      <c r="L66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M66" s="3">
         <v>69500</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2429,8 +2590,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2461,8 +2623,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2493,8 +2658,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2525,8 +2693,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2557,20 +2728,23 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-121900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-106200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-91600</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G72" s="3" t="s">
         <v>4</v>
       </c>
@@ -2586,11 +2760,14 @@
       <c r="K72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L72" s="3">
+      <c r="L72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M72" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2621,8 +2798,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2653,8 +2833,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2685,20 +2868,23 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>141100</v>
+      </c>
+      <c r="E76" s="3">
         <v>134200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>31800</v>
       </c>
-      <c r="F76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G76" s="3" t="s">
         <v>4</v>
       </c>
@@ -2714,11 +2900,14 @@
       <c r="K76" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L76" s="3">
+      <c r="L76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M76" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2749,77 +2938,86 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>4</v>
-      </c>
       <c r="K80" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L80" s="2">
+      <c r="L80" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-15700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-14700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>11200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-7600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-3000</v>
       </c>
-      <c r="J81" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K81" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L81" s="3">
+      <c r="L81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M81" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2832,26 +3030,27 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
         <v>1400</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>4</v>
+      <c r="E83" s="3">
+        <v>1400</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G83" s="3">
+      <c r="G83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H83" s="3">
         <v>1500</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I83" s="3" t="s">
         <v>4</v>
       </c>
@@ -2861,11 +3060,14 @@
       <c r="K83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2896,8 +3098,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2928,8 +3133,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2960,8 +3168,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2992,8 +3203,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3024,26 +3238,29 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E89" s="3">
         <v>15500</v>
       </c>
-      <c r="E89" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F89" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G89" s="3">
+      <c r="G89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H89" s="3">
         <v>4700</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I89" s="3" t="s">
         <v>4</v>
       </c>
@@ -3053,11 +3270,14 @@
       <c r="K89" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L89" s="3">
+      <c r="L89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M89" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3070,25 +3290,26 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
         <v>1100</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>4</v>
+      <c r="G91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>4</v>
@@ -3099,11 +3320,14 @@
       <c r="K91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3134,8 +3358,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3166,25 +3393,28 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
         <v>-1100</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>4</v>
+      <c r="E94" s="3">
+        <v>-1100</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>4</v>
+      <c r="G94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>4</v>
@@ -3195,11 +3425,14 @@
       <c r="K94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L94" s="3">
+      <c r="L94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M94" s="3">
         <v>137100</v>
       </c>
     </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3212,8 +3445,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3244,8 +3478,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3276,8 +3513,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3308,8 +3548,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3340,26 +3583,29 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="E100" s="3">
         <v>47100</v>
       </c>
-      <c r="E100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G100" s="3">
+      <c r="G100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H100" s="3">
         <v>5900</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I100" s="3" t="s">
         <v>4</v>
       </c>
@@ -3369,34 +3615,37 @@
       <c r="K100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L100" s="3">
+      <c r="L100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M100" s="3">
         <v>-137400</v>
       </c>
     </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
         <v>0</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
-        <v>0</v>
+      <c r="E101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
@@ -3404,26 +3653,29 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="E102" s="3">
         <v>61500</v>
       </c>
-      <c r="E102" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F102" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G102" s="3">
+      <c r="G102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H102" s="3">
         <v>10600</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I102" s="3" t="s">
         <v>4</v>
       </c>
@@ -3433,7 +3685,10 @@
       <c r="K102" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L102" s="3">
+      <c r="L102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M102" s="3">
         <v>-600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LTRY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LTRY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="92">
   <si>
     <t>LTRY</t>
   </si>
@@ -668,8 +668,8 @@
     <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="9.140625" style="1"/>
@@ -702,13 +702,13 @@
         <v>44377</v>
       </c>
       <c r="H7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
-      </c>
-      <c r="J7" s="2">
-        <v>44012</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>4</v>
@@ -734,16 +734,16 @@
         <v>32200</v>
       </c>
       <c r="G8" s="3">
-        <v>14800</v>
+        <v>9300</v>
       </c>
       <c r="H8" s="3">
+        <v>5500</v>
+      </c>
+      <c r="I8" s="3">
         <v>3300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1600</v>
-      </c>
-      <c r="J8" s="3">
-        <v>2600</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>4</v>
@@ -769,16 +769,16 @@
         <v>11900</v>
       </c>
       <c r="G9" s="3">
-        <v>4000</v>
+        <v>1100</v>
       </c>
       <c r="H9" s="3">
+        <v>2900</v>
+      </c>
+      <c r="I9" s="3">
         <v>1200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>700</v>
-      </c>
-      <c r="J9" s="3">
-        <v>1000</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>4</v>
@@ -804,16 +804,16 @@
         <v>20300</v>
       </c>
       <c r="G10" s="3">
-        <v>10800</v>
+        <v>8200</v>
       </c>
       <c r="H10" s="3">
+        <v>2600</v>
+      </c>
+      <c r="I10" s="3">
         <v>2100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>900</v>
-      </c>
-      <c r="J10" s="3">
-        <v>1600</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>4</v>
@@ -959,16 +959,16 @@
         <v>1500</v>
       </c>
       <c r="G15" s="3">
-        <v>1400</v>
+        <v>1000</v>
       </c>
       <c r="H15" s="3">
+        <v>400</v>
+      </c>
+      <c r="I15" s="3">
         <v>500</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>400</v>
-      </c>
-      <c r="J15" s="3">
-        <v>700</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>4</v>
@@ -1006,16 +1006,16 @@
         <v>17100</v>
       </c>
       <c r="G17" s="3">
-        <v>15400</v>
+        <v>7200</v>
       </c>
       <c r="H17" s="3">
+        <v>8200</v>
+      </c>
+      <c r="I17" s="3">
         <v>4100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2400</v>
-      </c>
-      <c r="J17" s="3">
-        <v>4600</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>4</v>
@@ -1041,16 +1041,16 @@
         <v>15100</v>
       </c>
       <c r="G18" s="3">
-        <v>-600</v>
+        <v>2100</v>
       </c>
       <c r="H18" s="3">
-        <v>-800</v>
+        <v>-2700</v>
       </c>
       <c r="I18" s="3">
         <v>-800</v>
       </c>
       <c r="J18" s="3">
-        <v>-2000</v>
+        <v>-800</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>4</v>
@@ -1091,16 +1091,16 @@
         <v>-100</v>
       </c>
       <c r="G20" s="3">
-        <v>-1500</v>
+        <v>-1200</v>
       </c>
       <c r="H20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I20" s="3">
         <v>-500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-100</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-400</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>4</v>
@@ -1128,14 +1128,14 @@
       <c r="G21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H21" s="3">
-        <v>200</v>
+      <c r="H21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I21" s="3">
         <v>200</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>4</v>
+      <c r="J21" s="3">
+        <v>200</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>4</v>
@@ -1161,16 +1161,16 @@
         <v>3800</v>
       </c>
       <c r="G22" s="3">
-        <v>5500</v>
+        <v>3100</v>
       </c>
       <c r="H22" s="3">
-        <v>300</v>
+        <v>2500</v>
       </c>
       <c r="I22" s="3">
         <v>300</v>
       </c>
       <c r="J22" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>4</v>
@@ -1196,16 +1196,16 @@
         <v>11200</v>
       </c>
       <c r="G23" s="3">
-        <v>-7600</v>
+        <v>-2100</v>
       </c>
       <c r="H23" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="I23" s="3">
         <v>-1700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1200</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-3000</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>4</v>
@@ -1236,8 +1236,8 @@
       <c r="H24" s="3">
         <v>0</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>4</v>
+      <c r="I24" s="3">
+        <v>0</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>4</v>
@@ -1301,16 +1301,16 @@
         <v>11200</v>
       </c>
       <c r="G26" s="3">
-        <v>-7600</v>
+        <v>-2100</v>
       </c>
       <c r="H26" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="I26" s="3">
         <v>-1700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1200</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-3000</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>4</v>
@@ -1336,16 +1336,16 @@
         <v>11200</v>
       </c>
       <c r="G27" s="3">
-        <v>-7600</v>
+        <v>-2100</v>
       </c>
       <c r="H27" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="I27" s="3">
         <v>-1700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1200</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-3000</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>4</v>
@@ -1511,16 +1511,16 @@
         <v>100</v>
       </c>
       <c r="G32" s="3">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="H32" s="3">
+        <v>300</v>
+      </c>
+      <c r="I32" s="3">
         <v>500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>100</v>
-      </c>
-      <c r="J32" s="3">
-        <v>400</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>4</v>
@@ -1546,16 +1546,16 @@
         <v>11200</v>
       </c>
       <c r="G33" s="3">
-        <v>-7600</v>
+        <v>-2100</v>
       </c>
       <c r="H33" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="I33" s="3">
         <v>-1700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1200</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-3000</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>4</v>
@@ -1616,16 +1616,16 @@
         <v>11200</v>
       </c>
       <c r="G35" s="3">
-        <v>-7600</v>
+        <v>-2100</v>
       </c>
       <c r="H35" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="I35" s="3">
         <v>-1700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1200</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-3000</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>4</v>
@@ -1659,13 +1659,13 @@
         <v>44377</v>
       </c>
       <c r="H38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
-      </c>
-      <c r="J38" s="2">
-        <v>44012</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>4</v>
@@ -2964,13 +2964,13 @@
         <v>44377</v>
       </c>
       <c r="H80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
-      </c>
-      <c r="J80" s="2">
-        <v>44012</v>
       </c>
       <c r="K80" s="2" t="s">
         <v>4</v>
@@ -2996,16 +2996,16 @@
         <v>11200</v>
       </c>
       <c r="G81" s="3">
-        <v>-7600</v>
+        <v>-2100</v>
       </c>
       <c r="H81" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="I81" s="3">
         <v>-1700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1200</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-3000</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>4</v>
@@ -3048,11 +3048,11 @@
       <c r="G83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H83" s="3">
+      <c r="H83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I83" s="3">
         <v>1500</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>4</v>
@@ -3258,11 +3258,11 @@
       <c r="G89" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H89" s="3">
+      <c r="H89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I89" s="3">
         <v>4700</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>4</v>
@@ -3308,11 +3308,11 @@
       <c r="G91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>4</v>
+      <c r="H91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>4</v>
@@ -3413,11 +3413,11 @@
       <c r="G94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>4</v>
+      <c r="H94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>4</v>
@@ -3603,11 +3603,11 @@
       <c r="G100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H100" s="3">
+      <c r="H100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I100" s="3">
         <v>5900</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>4</v>
@@ -3673,11 +3673,11 @@
       <c r="G102" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H102" s="3">
+      <c r="H102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I102" s="3">
         <v>10600</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>4</v>

--- a/AAII_Financials/Quarterly/LTRY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LTRY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="92">
   <si>
     <t>LTRY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,167 +665,231 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="G7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="H7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M7" s="2">
+      <c r="P7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>21200</v>
+        <v>700</v>
       </c>
       <c r="E8" s="3">
+        <v>600</v>
+      </c>
+      <c r="F8" s="3">
+        <v>600</v>
+      </c>
+      <c r="G8" s="3">
+        <v>700</v>
+      </c>
+      <c r="H8" s="3">
+        <v>1900</v>
+      </c>
+      <c r="I8" s="3">
+        <v>3600</v>
+      </c>
+      <c r="J8" s="3">
         <v>21500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="K8" s="3">
         <v>32200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="L8" s="3">
         <v>9300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="M8" s="3">
         <v>5500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="N8" s="3">
         <v>3300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="O8" s="3">
         <v>1600</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>100</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
+        <v>100</v>
+      </c>
+      <c r="G9" s="3">
+        <v>300</v>
+      </c>
+      <c r="H9" s="3">
+        <v>1600</v>
+      </c>
+      <c r="I9" s="3">
+        <v>2400</v>
+      </c>
+      <c r="J9" s="3">
         <v>3200</v>
       </c>
-      <c r="E9" s="3">
-        <v>3200</v>
-      </c>
-      <c r="F9" s="3">
+      <c r="K9" s="3">
         <v>11900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="L9" s="3">
         <v>1100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="M9" s="3">
         <v>2900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="N9" s="3">
         <v>1200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="O9" s="3">
         <v>700</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>18000</v>
+        <v>600</v>
       </c>
       <c r="E10" s="3">
+        <v>600</v>
+      </c>
+      <c r="F10" s="3">
+        <v>500</v>
+      </c>
+      <c r="G10" s="3">
+        <v>400</v>
+      </c>
+      <c r="H10" s="3">
+        <v>300</v>
+      </c>
+      <c r="I10" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J10" s="3">
         <v>18300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="K10" s="3">
         <v>20300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="L10" s="3">
         <v>8200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="M10" s="3">
         <v>2600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="N10" s="3">
         <v>2100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="O10" s="3">
         <v>900</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -839,8 +903,13 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -874,8 +943,23 @@
       <c r="M12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -909,8 +993,23 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -944,8 +1043,23 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -959,28 +1073,43 @@
         <v>1500</v>
       </c>
       <c r="G15" s="3">
+        <v>1500</v>
+      </c>
+      <c r="H15" s="3">
+        <v>3900</v>
+      </c>
+      <c r="I15" s="3">
+        <v>2700</v>
+      </c>
+      <c r="J15" s="3">
+        <v>1400</v>
+      </c>
+      <c r="K15" s="3">
+        <v>1500</v>
+      </c>
+      <c r="L15" s="3">
         <v>1000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="M15" s="3">
         <v>400</v>
       </c>
-      <c r="I15" s="3">
+      <c r="N15" s="3">
         <v>500</v>
       </c>
-      <c r="J15" s="3">
+      <c r="O15" s="3">
         <v>400</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -991,78 +1120,113 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>37000</v>
+        <v>4900</v>
       </c>
       <c r="E17" s="3">
+        <v>3800</v>
+      </c>
+      <c r="F17" s="3">
+        <v>4000</v>
+      </c>
+      <c r="G17" s="3">
+        <v>6800</v>
+      </c>
+      <c r="H17" s="3">
+        <v>17500</v>
+      </c>
+      <c r="I17" s="3">
+        <v>34300</v>
+      </c>
+      <c r="J17" s="3">
         <v>25800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="K17" s="3">
         <v>17100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="L17" s="3">
         <v>7200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="M17" s="3">
         <v>8200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="N17" s="3">
         <v>4100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="O17" s="3">
         <v>2400</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M17" s="3">
+      <c r="P17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R17" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-15800</v>
+        <v>-4200</v>
       </c>
       <c r="E18" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-15600</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-30700</v>
+      </c>
+      <c r="J18" s="3">
         <v>-4300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="K18" s="3">
         <v>15100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="L18" s="3">
         <v>2100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="M18" s="3">
         <v>-2700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="N18" s="3">
         <v>-800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="O18" s="3">
         <v>-800</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M18" s="3">
+      <c r="P18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R18" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1076,148 +1240,213 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>200</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="J20" s="3">
         <v>-1300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="L20" s="3">
         <v>-1200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="M20" s="3">
         <v>-300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="N20" s="3">
         <v>-500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="O20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M20" s="3">
+      <c r="P20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R20" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-14400</v>
+        <v>-2900</v>
       </c>
       <c r="E21" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-34600</v>
+      </c>
+      <c r="J21" s="3">
         <v>-4200</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N21" s="3">
         <v>200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="O21" s="3">
         <v>200</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J22" s="3">
         <v>10500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="K22" s="3">
         <v>3800</v>
       </c>
-      <c r="G22" s="3">
+      <c r="L22" s="3">
         <v>3100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="M22" s="3">
         <v>2500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="N22" s="3">
         <v>300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="O22" s="3">
         <v>300</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="P22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-15800</v>
+        <v>-4300</v>
       </c>
       <c r="E23" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="G23" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-15400</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-34900</v>
+      </c>
+      <c r="J23" s="3">
         <v>-16100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="K23" s="3">
         <v>11200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="L23" s="3">
         <v>-2100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="M23" s="3">
         <v>-5500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="N23" s="3">
         <v>-1700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="O23" s="3">
         <v>-1200</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M23" s="3">
+      <c r="P23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R23" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1225,23 +1454,23 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>-1600</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K24" s="3" t="s">
         <v>4</v>
       </c>
@@ -1249,10 +1478,25 @@
         <v>4</v>
       </c>
       <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1286,78 +1530,123 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-15800</v>
+        <v>-4300</v>
       </c>
       <c r="E26" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="G26" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-15400</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-34900</v>
+      </c>
+      <c r="J26" s="3">
         <v>-14500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="K26" s="3">
         <v>11200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="L26" s="3">
         <v>-2100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="M26" s="3">
         <v>-5500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="N26" s="3">
         <v>-1700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="O26" s="3">
         <v>-1200</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M26" s="3">
+      <c r="P26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R26" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-15700</v>
+        <v>-4300</v>
       </c>
       <c r="E27" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="G27" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-15600</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-35000</v>
+      </c>
+      <c r="J27" s="3">
         <v>-14700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="K27" s="3">
         <v>11200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="L27" s="3">
         <v>-2100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="M27" s="3">
         <v>-5500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="N27" s="3">
         <v>-1700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="O27" s="3">
         <v>-1200</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M27" s="3">
+      <c r="P27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R27" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1391,8 +1680,23 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1426,8 +1730,23 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1461,8 +1780,23 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1496,78 +1830,123 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>500</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I32" s="3">
+        <v>4200</v>
+      </c>
+      <c r="J32" s="3">
         <v>1300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="L32" s="3">
         <v>1200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="M32" s="3">
         <v>300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="N32" s="3">
         <v>500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="O32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M32" s="3">
+      <c r="P32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R32" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-15700</v>
+        <v>-4300</v>
       </c>
       <c r="E33" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="G33" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-15600</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-35000</v>
+      </c>
+      <c r="J33" s="3">
         <v>-14700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="K33" s="3">
         <v>11200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="L33" s="3">
         <v>-2100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="M33" s="3">
         <v>-5500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="N33" s="3">
         <v>-1700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="O33" s="3">
         <v>-1200</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M33" s="3">
+      <c r="P33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R33" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1601,83 +1980,128 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-15700</v>
+        <v>-4300</v>
       </c>
       <c r="E35" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="G35" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-15600</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-35000</v>
+      </c>
+      <c r="J35" s="3">
         <v>-14700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="K35" s="3">
         <v>11200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="L35" s="3">
         <v>-2100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="M35" s="3">
         <v>-5500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="N35" s="3">
         <v>-1700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="O35" s="3">
         <v>-1200</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M35" s="3">
+      <c r="P35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R35" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="G38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="H38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="L38" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M38" s="2">
+      <c r="P38" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q38" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1691,8 +2115,13 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1706,43 +2135,63 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>100</v>
+      </c>
+      <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
+        <v>100</v>
+      </c>
+      <c r="G41" s="3">
+        <v>100</v>
+      </c>
+      <c r="H41" s="3">
+        <v>400</v>
+      </c>
+      <c r="I41" s="3">
         <v>50800</v>
       </c>
-      <c r="E41" s="3">
-        <v>62600</v>
-      </c>
-      <c r="F41" s="3">
+      <c r="J41" s="3">
+        <v>32600</v>
+      </c>
+      <c r="K41" s="3">
         <v>1200</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M41" s="3">
+      <c r="M41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R41" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1776,43 +2225,73 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>200</v>
+      </c>
+      <c r="E43" s="3">
+        <v>100</v>
+      </c>
+      <c r="F43" s="3">
+        <v>200</v>
+      </c>
+      <c r="G43" s="3">
+        <v>200</v>
+      </c>
+      <c r="H43" s="3">
+        <v>200</v>
+      </c>
+      <c r="I43" s="3">
         <v>35800</v>
       </c>
-      <c r="E43" s="3">
-        <v>21700</v>
-      </c>
-      <c r="F43" s="3">
+      <c r="J43" s="3">
+        <v>100</v>
+      </c>
+      <c r="K43" s="3">
         <v>33100</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1846,113 +2325,173 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>20200</v>
+      </c>
+      <c r="E45" s="3">
+        <v>20100</v>
+      </c>
+      <c r="F45" s="3">
+        <v>20100</v>
+      </c>
+      <c r="G45" s="3">
+        <v>49900</v>
+      </c>
+      <c r="H45" s="3">
+        <v>50900</v>
+      </c>
+      <c r="I45" s="3">
         <v>13100</v>
       </c>
-      <c r="E45" s="3">
-        <v>14100</v>
-      </c>
-      <c r="F45" s="3">
+      <c r="J45" s="3">
+        <v>23100</v>
+      </c>
+      <c r="K45" s="3">
         <v>11100</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M45" s="3">
+      <c r="M45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R45" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>20400</v>
+      </c>
+      <c r="E46" s="3">
+        <v>20300</v>
+      </c>
+      <c r="F46" s="3">
+        <v>20400</v>
+      </c>
+      <c r="G46" s="3">
+        <v>50300</v>
+      </c>
+      <c r="H46" s="3">
+        <v>51500</v>
+      </c>
+      <c r="I46" s="3">
         <v>99700</v>
       </c>
-      <c r="E46" s="3">
-        <v>98500</v>
-      </c>
-      <c r="F46" s="3">
+      <c r="J46" s="3">
+        <v>55800</v>
+      </c>
+      <c r="K46" s="3">
         <v>45300</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M46" s="3">
+      <c r="M46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R46" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E47" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F47" s="3">
+        <v>2300</v>
+      </c>
+      <c r="G47" s="3">
+        <v>2300</v>
+      </c>
+      <c r="H47" s="3">
+        <v>2300</v>
+      </c>
+      <c r="I47" s="3">
         <v>6800</v>
       </c>
-      <c r="E47" s="3">
+      <c r="J47" s="3">
         <v>300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="K47" s="3">
         <v>300</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M47" s="3">
+      <c r="M47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R47" s="3">
         <v>74400</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1963,66 +2502,96 @@
         <v>100</v>
       </c>
       <c r="F48" s="3">
+        <v>100</v>
+      </c>
+      <c r="G48" s="3">
+        <v>100</v>
+      </c>
+      <c r="H48" s="3">
+        <v>100</v>
+      </c>
+      <c r="I48" s="3">
+        <v>100</v>
+      </c>
+      <c r="J48" s="3">
+        <v>100</v>
+      </c>
+      <c r="K48" s="3">
         <v>1300</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>40800</v>
+      </c>
+      <c r="E49" s="3">
+        <v>42200</v>
+      </c>
+      <c r="F49" s="3">
+        <v>43600</v>
+      </c>
+      <c r="G49" s="3">
+        <v>45000</v>
+      </c>
+      <c r="H49" s="3">
+        <v>46800</v>
+      </c>
+      <c r="I49" s="3">
         <v>48100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="J49" s="3">
         <v>48300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="K49" s="3">
         <v>45800</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M49" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2056,8 +2625,23 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2091,31 +2675,46 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
+        <v>12900</v>
       </c>
       <c r="E52" s="3">
-        <v>0</v>
+        <v>12900</v>
       </c>
       <c r="F52" s="3">
-        <v>0</v>
+        <v>13000</v>
       </c>
       <c r="G52" s="3">
-        <v>0</v>
+        <v>13000</v>
       </c>
       <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
+        <v>13000</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
@@ -2126,8 +2725,23 @@
       <c r="M52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2161,43 +2775,73 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>76400</v>
+      </c>
+      <c r="E54" s="3">
+        <v>77700</v>
+      </c>
+      <c r="F54" s="3">
+        <v>79400</v>
+      </c>
+      <c r="G54" s="3">
+        <v>110700</v>
+      </c>
+      <c r="H54" s="3">
+        <v>113600</v>
+      </c>
+      <c r="I54" s="3">
         <v>154600</v>
       </c>
-      <c r="E54" s="3">
-        <v>147200</v>
-      </c>
-      <c r="F54" s="3">
+      <c r="J54" s="3">
+        <v>104500</v>
+      </c>
+      <c r="K54" s="3">
         <v>92600</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M54" s="3">
+      <c r="M54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R54" s="3">
         <v>74500</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2211,8 +2855,13 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2226,148 +2875,213 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E57" s="3">
+        <v>7600</v>
+      </c>
+      <c r="F57" s="3">
+        <v>7600</v>
+      </c>
+      <c r="G57" s="3">
+        <v>7200</v>
+      </c>
+      <c r="H57" s="3">
+        <v>4700</v>
+      </c>
+      <c r="I57" s="3">
         <v>2600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="J57" s="3">
         <v>1000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="K57" s="3">
         <v>3000</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M57" s="3">
+      <c r="M57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R57" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E58" s="3">
+        <v>4800</v>
+      </c>
+      <c r="F58" s="3">
+        <v>3800</v>
+      </c>
+      <c r="G58" s="3">
+        <v>3300</v>
+      </c>
+      <c r="H58" s="3">
+        <v>3300</v>
+      </c>
+      <c r="I58" s="3">
         <v>3500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="J58" s="3">
         <v>3800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="K58" s="3">
         <v>13000</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M58" s="3">
+      <c r="M58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E59" s="3">
+        <v>6600</v>
+      </c>
+      <c r="F59" s="3">
+        <v>6200</v>
+      </c>
+      <c r="G59" s="3">
+        <v>4400</v>
+      </c>
+      <c r="H59" s="3">
+        <v>4100</v>
+      </c>
+      <c r="I59" s="3">
         <v>4800</v>
       </c>
-      <c r="E59" s="3">
-        <v>5400</v>
-      </c>
-      <c r="F59" s="3">
+      <c r="J59" s="3">
+        <v>5800</v>
+      </c>
+      <c r="K59" s="3">
         <v>9000</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M59" s="3">
+      <c r="M59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R59" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>21600</v>
+      </c>
+      <c r="E60" s="3">
+        <v>19000</v>
+      </c>
+      <c r="F60" s="3">
+        <v>17600</v>
+      </c>
+      <c r="G60" s="3">
+        <v>14900</v>
+      </c>
+      <c r="H60" s="3">
+        <v>12200</v>
+      </c>
+      <c r="I60" s="3">
         <v>10800</v>
       </c>
-      <c r="E60" s="3">
-        <v>10100</v>
-      </c>
-      <c r="F60" s="3">
+      <c r="J60" s="3">
+        <v>10500</v>
+      </c>
+      <c r="K60" s="3">
         <v>25000</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K60" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M60" s="3">
+      <c r="M60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R60" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2378,31 +3092,46 @@
         <v>0</v>
       </c>
       <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>31600</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2413,31 +3142,46 @@
         <v>0</v>
       </c>
       <c r="F62" s="3">
+        <v>0</v>
+      </c>
+      <c r="G62" s="3">
+        <v>30000</v>
+      </c>
+      <c r="H62" s="3">
+        <v>30000</v>
+      </c>
+      <c r="I62" s="3">
+        <v>0</v>
+      </c>
+      <c r="J62" s="3">
+        <v>0</v>
+      </c>
+      <c r="K62" s="3">
         <v>1600</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M62" s="3">
+      <c r="M62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R62" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2471,8 +3215,23 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2506,8 +3265,23 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2541,43 +3315,73 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>23900</v>
+      </c>
+      <c r="E66" s="3">
+        <v>21300</v>
+      </c>
+      <c r="F66" s="3">
+        <v>20000</v>
+      </c>
+      <c r="G66" s="3">
+        <v>47400</v>
+      </c>
+      <c r="H66" s="3">
+        <v>44700</v>
+      </c>
+      <c r="I66" s="3">
         <v>13500</v>
       </c>
-      <c r="E66" s="3">
-        <v>12900</v>
-      </c>
-      <c r="F66" s="3">
+      <c r="J66" s="3">
+        <v>13300</v>
+      </c>
+      <c r="K66" s="3">
         <v>60800</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M66" s="3">
+      <c r="M66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R66" s="3">
         <v>69500</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2591,8 +3395,13 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2626,8 +3435,23 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2661,8 +3485,23 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2696,8 +3535,23 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2731,43 +3585,73 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-215700</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-211400</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-208200</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-204300</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-198300</v>
+      </c>
+      <c r="I72" s="3">
         <v>-121900</v>
       </c>
-      <c r="E72" s="3">
-        <v>-106200</v>
-      </c>
-      <c r="F72" s="3">
+      <c r="J72" s="3">
+        <v>-148200</v>
+      </c>
+      <c r="K72" s="3">
         <v>-91600</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M72" s="3">
+      <c r="M72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R72" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2801,8 +3685,23 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2836,8 +3735,23 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2871,43 +3785,73 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>52500</v>
+      </c>
+      <c r="E76" s="3">
+        <v>56400</v>
+      </c>
+      <c r="F76" s="3">
+        <v>59400</v>
+      </c>
+      <c r="G76" s="3">
+        <v>63300</v>
+      </c>
+      <c r="H76" s="3">
+        <v>68900</v>
+      </c>
+      <c r="I76" s="3">
         <v>141100</v>
       </c>
-      <c r="E76" s="3">
-        <v>134200</v>
-      </c>
-      <c r="F76" s="3">
+      <c r="J76" s="3">
+        <v>91200</v>
+      </c>
+      <c r="K76" s="3">
         <v>31800</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M76" s="3">
+      <c r="M76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R76" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2941,83 +3885,128 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="G80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="H80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="L80" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M80" s="2">
+      <c r="P80" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q80" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-15700</v>
+        <v>-4300</v>
       </c>
       <c r="E81" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="G81" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-15600</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-35000</v>
+      </c>
+      <c r="J81" s="3">
         <v>-14700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="K81" s="3">
         <v>11200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="L81" s="3">
         <v>-2100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="M81" s="3">
         <v>-5500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="N81" s="3">
         <v>-1700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="O81" s="3">
         <v>-1200</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M81" s="3">
+      <c r="P81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R81" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3031,8 +4020,13 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3042,32 +4036,47 @@
       <c r="E83" s="3">
         <v>1400</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>4</v>
+      <c r="F83" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G83" s="3">
+        <v>1400</v>
+      </c>
+      <c r="H83" s="3">
+        <v>1300</v>
       </c>
       <c r="I83" s="3">
+        <v>1400</v>
+      </c>
+      <c r="J83" s="3">
+        <v>1400</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N83" s="3">
         <v>1500</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3101,8 +4110,23 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3136,8 +4160,23 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3171,8 +4210,23 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3206,8 +4260,23 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3241,43 +4310,73 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-3900</v>
+        <v>400</v>
       </c>
       <c r="E89" s="3">
-        <v>15500</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>4</v>
+        <v>-1000</v>
+      </c>
+      <c r="F89" s="3">
+        <v>-30500</v>
+      </c>
+      <c r="G89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H89" s="3">
+        <v>-2600</v>
       </c>
       <c r="I89" s="3">
+        <v>2000</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-15800</v>
+      </c>
+      <c r="K89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N89" s="3">
         <v>4700</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R89" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3291,8 +4390,13 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3300,22 +4404,22 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
-        <v>1100</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-1200</v>
       </c>
       <c r="I91" s="3">
         <v>0</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>4</v>
+      <c r="J91" s="3">
+        <v>-3600</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>4</v>
@@ -3323,11 +4427,26 @@
       <c r="L91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3361,8 +4480,23 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3396,31 +4530,46 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1100</v>
+        <v>0</v>
       </c>
       <c r="E94" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-1200</v>
       </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>4</v>
+      <c r="J94" s="3">
+        <v>200</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>4</v>
@@ -3428,11 +4577,26 @@
       <c r="L94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M94" s="3">
+      <c r="M94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R94" s="3">
         <v>137100</v>
       </c>
     </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3446,8 +4610,13 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3481,8 +4650,23 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3516,8 +4700,23 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3551,8 +4750,23 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3586,109 +4800,169 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-6800</v>
+        <v>-300</v>
       </c>
       <c r="E100" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F100" s="3">
+        <v>500</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I100" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J100" s="3">
         <v>47100</v>
       </c>
-      <c r="F100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N100" s="3">
         <v>5900</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R100" s="3">
         <v>-137400</v>
       </c>
     </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
         <v>0</v>
       </c>
-      <c r="E101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>4</v>
+      <c r="E101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
+        <v>0</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="K101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-11800</v>
+        <v>0</v>
       </c>
       <c r="E102" s="3">
-        <v>61500</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>4</v>
+        <v>-100</v>
+      </c>
+      <c r="F102" s="3">
+        <v>-30000</v>
+      </c>
+      <c r="G102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H102" s="3">
+        <v>-3900</v>
       </c>
       <c r="I102" s="3">
+        <v>1700</v>
+      </c>
+      <c r="J102" s="3">
+        <v>31500</v>
+      </c>
+      <c r="K102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N102" s="3">
         <v>10600</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R102" s="3">
         <v>-600</v>
       </c>
     </row>
